--- a/CASUAL/LA CENRO/DIGNO, DANILO.xlsx
+++ b/CASUAL/LA CENRO/DIGNO, DANILO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>11/21,22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(14-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1253,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1296,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1360,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1420,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1486,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1549,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1647,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1706,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1771,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1814,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1889,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2141,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2265,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2321,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2396,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2439,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2505,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2561,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3028,12 +3034,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3390" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3200,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56.28</v>
+        <v>58.78</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3204,7 +3210,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>76</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4870,13 +4876,15 @@
         <v>45231</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4888,13 +4896,15 @@
         <v>45261</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -4902,8 +4912,8 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45292</v>
+      <c r="A90" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4921,9 +4931,11 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B91" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -4932,14 +4944,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>14</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4957,7 +4971,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4975,7 +4989,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4993,7 +5007,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5011,7 +5025,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5029,7 +5043,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5047,7 +5061,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5065,7 +5079,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5083,7 +5097,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5101,7 +5115,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5119,7 +5133,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5136,7 +5150,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45658</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5584,20 +5600,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5646,7 +5678,7 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="H6" sqref="H6"/>
       <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
@@ -7305,17 +7337,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/CASUAL/LA CENRO/DIGNO, DANILO.xlsx
+++ b/CASUAL/LA CENRO/DIGNO, DANILO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CENRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285BEA3B-B548-4BE4-A251-A7B5C8E18254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,9 +289,6 @@
     <t>UT(0-1-43)</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-47)</t>
   </si>
   <si>
@@ -306,9 +304,6 @@
     <t>UT(0-0-45)</t>
   </si>
   <si>
-    <t>A(2-0-0)</t>
-  </si>
-  <si>
     <t>4/5,28/2022</t>
   </si>
   <si>
@@ -319,12 +314,18 @@
   </si>
   <si>
     <t>SL(14-0-0)</t>
+  </si>
+  <si>
+    <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>21,23-28/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1253,7 +1254,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1297,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1361,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1421,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1487,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1550,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1648,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1707,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1772,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1815,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,7 +1890,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2076,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2142,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2200,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2265,7 +2266,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2322,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2397,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2440,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2506,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2562,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2641,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2657,25 +2658,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2687,25 +2688,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K87" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3012,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3022,7 +3023,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3030,34 +3031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3390" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3396" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3078,7 +3079,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3118,7 +3119,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3126,7 +3127,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3139,7 +3140,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3156,7 +3157,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3200,7 +3201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>58.78</v>
+        <v>60.03</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3210,12 +3211,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76</v>
+        <v>70.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3237,7 +3238,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3257,7 +3258,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3297,7 +3298,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3363,7 +3364,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3429,7 +3430,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3449,7 +3450,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3469,7 +3470,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3489,7 +3490,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>57</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3573,7 +3574,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3593,7 +3594,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3725,7 +3726,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3745,7 +3746,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>61</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3807,7 +3808,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3873,7 +3874,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3893,7 +3894,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3913,7 +3914,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3933,7 +3934,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3953,7 +3954,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3973,7 +3974,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3993,7 +3994,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4013,7 +4014,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4037,7 +4038,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>65</v>
       </c>
@@ -4055,7 +4056,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4095,7 +4096,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4135,7 +4136,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4175,7 +4176,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4215,7 +4216,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4235,7 +4236,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4255,7 +4256,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4275,7 +4276,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>68</v>
       </c>
@@ -4317,7 +4318,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>44593</v>
@@ -4358,13 +4359,13 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A71" si="0">EDATE(A64,1)</f>
         <v>44621</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -4385,13 +4386,13 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>44652</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -4409,16 +4410,16 @@
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
       <c r="K66" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>44682</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -4437,13 +4438,13 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A67,1)</f>
         <v>44713</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4462,13 +4463,13 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="13">
         <v>1.25</v>
@@ -4487,13 +4488,13 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>44774</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -4512,13 +4513,13 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>44805</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -4539,12 +4540,12 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4565,10 +4566,10 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39">
@@ -4585,7 +4586,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="49"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4609,18 +4610,18 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
       <c r="D75" s="39">
-        <v>5</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -4633,15 +4634,13 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20" t="s">
-        <v>81</v>
-      </c>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="39">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -4651,29 +4650,31 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>72</v>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44927</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4691,9 +4692,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4711,9 +4712,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4731,9 +4732,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4751,9 +4752,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4771,9 +4772,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4791,9 +4792,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4811,9 +4812,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4831,9 +4832,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4851,9 +4852,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4871,15 +4872,19 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B88" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -4891,50 +4896,54 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45261</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="48" t="s">
+        <v>90</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="39"/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H90" s="39">
+        <v>14</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4945,15 +4954,17 @@
         <v/>
       </c>
       <c r="H91" s="39">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4969,9 +4980,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4987,9 +4998,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5005,9 +5016,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5023,9 +5034,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5041,9 +5052,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5059,9 +5070,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5077,9 +5088,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5095,9 +5106,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5113,9 +5124,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5131,9 +5142,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5149,10 +5160,8 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45658</v>
-      </c>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5167,7 +5176,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5183,7 +5192,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5199,7 +5208,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5215,7 +5224,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5231,7 +5240,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5247,7 +5256,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5263,7 +5272,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5279,7 +5288,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5295,7 +5304,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5311,7 +5320,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5327,7 +5336,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5343,7 +5352,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5359,7 +5368,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5375,7 +5384,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5391,7 +5400,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5407,7 +5416,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5423,7 +5432,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5439,7 +5448,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5455,7 +5464,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5471,7 +5480,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5487,7 +5496,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5503,7 +5512,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5519,7 +5528,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5535,7 +5544,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5551,7 +5560,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5567,7 +5576,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5583,7 +5592,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5599,37 +5608,21 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5646,10 +5639,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5672,34 +5665,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A38" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A38" activePane="bottomLeft"/>
       <selection activeCell="H6" sqref="H6"/>
       <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5720,7 +5713,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5738,7 +5731,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5760,7 +5753,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5768,7 +5761,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5781,7 +5774,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -5798,7 +5791,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5857,7 +5850,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -5879,7 +5872,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -5903,7 +5896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5927,7 +5920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5951,7 +5944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43313</v>
       </c>
@@ -5975,7 +5968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43374</v>
       </c>
@@ -5999,7 +5992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
         <v>57</v>
       </c>
@@ -6017,7 +6010,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43586</v>
       </c>
@@ -6041,7 +6034,7 @@
         <v>43589</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43770</v>
       </c>
@@ -6065,7 +6058,7 @@
         <v>43786</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>61</v>
       </c>
@@ -6083,7 +6076,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -6107,7 +6100,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>62</v>
@@ -6127,7 +6120,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>65</v>
       </c>
@@ -6145,7 +6138,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44228</v>
       </c>
@@ -6169,7 +6162,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44256</v>
       </c>
@@ -6193,7 +6186,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44287</v>
       </c>
@@ -6217,7 +6210,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>68</v>
       </c>
@@ -6235,7 +6228,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44682</v>
       </c>
@@ -6259,7 +6252,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>59</v>
@@ -6281,7 +6274,7 @@
         <v>44711</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44743</v>
       </c>
@@ -6305,7 +6298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44805</v>
       </c>
@@ -6329,7 +6322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44882</v>
       </c>
@@ -6353,7 +6346,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44896</v>
       </c>
@@ -6375,7 +6368,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>72</v>
       </c>
@@ -6393,7 +6386,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44958</v>
       </c>
@@ -6415,7 +6408,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -6437,7 +6430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45017</v>
       </c>
@@ -6461,7 +6454,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>51</v>
@@ -6483,7 +6476,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>45047</v>
       </c>
@@ -6501,7 +6494,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>45078</v>
       </c>
@@ -6525,7 +6518,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>45108</v>
       </c>
@@ -6549,7 +6542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>62</v>
@@ -6569,7 +6562,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45139</v>
       </c>
@@ -6593,7 +6586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>45170</v>
       </c>
@@ -6617,7 +6610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>79</v>
@@ -6639,7 +6632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>45231</v>
       </c>
@@ -6660,10 +6653,10 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6679,7 +6672,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6695,7 +6688,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6711,7 +6704,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6727,7 +6720,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6743,7 +6736,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6759,7 +6752,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6775,7 +6768,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6791,7 +6784,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6807,7 +6800,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6823,7 +6816,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6839,7 +6832,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6855,7 +6848,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6871,7 +6864,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6887,7 +6880,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6903,7 +6896,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6919,7 +6912,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6935,7 +6928,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6951,7 +6944,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6967,7 +6960,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6983,7 +6976,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6999,7 +6992,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7015,7 +7008,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7031,7 +7024,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7047,7 +7040,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7063,7 +7056,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7079,7 +7072,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7095,7 +7088,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7111,7 +7104,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7127,7 +7120,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7143,7 +7136,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7159,7 +7152,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7175,7 +7168,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7191,7 +7184,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7207,7 +7200,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7223,7 +7216,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7239,7 +7232,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7255,7 +7248,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7271,7 +7264,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7287,7 +7280,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7303,7 +7296,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7319,7 +7312,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="15"/>
       <c r="C87" s="42"/>
@@ -7337,23 +7330,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7376,28 +7369,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7410,7 +7403,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7439,7 +7432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>44.802</v>
       </c>
@@ -7465,17 +7458,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7496,7 +7489,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7523,7 +7516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7549,7 +7542,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7575,7 +7568,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7601,7 +7594,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7627,7 +7620,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7653,7 +7646,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7679,7 +7672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7705,7 +7698,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7725,7 +7718,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7745,7 +7738,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7765,7 +7758,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7786,7 +7779,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7807,7 +7800,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7828,7 +7821,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7849,7 +7842,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7870,7 +7863,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7891,7 +7884,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7912,7 +7905,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7933,7 +7926,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7954,7 +7947,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7975,7 +7968,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7996,7 +7989,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8017,7 +8010,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8038,7 +8031,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8059,7 +8052,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8080,7 +8073,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8101,7 +8094,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8122,7 +8115,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8143,7 +8136,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8164,7 +8157,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8185,7 +8178,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8194,7 +8187,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8203,7 +8196,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8212,7 +8205,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8221,7 +8214,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8230,7 +8223,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8239,7 +8232,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8248,7 +8241,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8257,7 +8250,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8266,7 +8259,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8275,7 +8268,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8284,7 +8277,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8293,7 +8286,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8302,7 +8295,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8311,7 +8304,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8320,7 +8313,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8329,7 +8322,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8338,7 +8331,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8347,7 +8340,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8356,7 +8349,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8365,7 +8358,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8374,7 +8367,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8383,7 +8376,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8392,7 +8385,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8401,7 +8394,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8410,7 +8403,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8419,7 +8412,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8428,7 +8421,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8437,7 +8430,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8446,7 +8439,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
